--- a/source/Sylvan.Data.Excel.Tests/Data/Xlsx/Format.xlsx
+++ b/source/Sylvan.Data.Excel.Tests/Data/Xlsx/Format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpflug\OneDrive - Huron Consulting Group\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\source\Sylvan.Data.Excel\source\Sylvan.Data.Excel.Tests\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324245D3-5438-44BA-B4F7-F33F9CABA453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AAD0C0-3FBC-4645-91FA-20E2157EF655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12735" xr2:uid="{8D3DF0BE-D66C-4621-81AE-84598EC9FD88}"/>
+    <workbookView xWindow="2955" yWindow="3360" windowWidth="21600" windowHeight="12375" xr2:uid="{8D3DF0BE-D66C-4621-81AE-84598EC9FD88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,8 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42,30 +29,30 @@
   <numFmts count="26">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000;[Red]#,##0.0000"/>
-    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="m/d;@"/>
-    <numFmt numFmtId="171" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="172" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="173" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="174" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="175" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="176" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="177" formatCode="[$-409]mmmm\-yy;@"/>
-    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="180" formatCode="m/d/yy\ h:mm;@"/>
-    <numFmt numFmtId="181" formatCode="[$-409]mmmmm;@"/>
-    <numFmt numFmtId="182" formatCode="[$-409]mmmmm\-yy;@"/>
-    <numFmt numFmtId="183" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="184" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="185" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="186" formatCode="h:mm;@"/>
-    <numFmt numFmtId="187" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="188" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="189" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="190" formatCode="mm:ss.0;@"/>
-    <numFmt numFmtId="191" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="168" formatCode="m/d;@"/>
+    <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="170" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="171" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="172" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="173" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="174" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="175" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="178" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="179" formatCode="[$-409]mmmmm;@"/>
+    <numFmt numFmtId="180" formatCode="[$-409]mmmmm\-yy;@"/>
+    <numFmt numFmtId="181" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="182" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="183" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="184" formatCode="h:mm;@"/>
+    <numFmt numFmtId="185" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="186" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="187" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="188" formatCode="mm:ss.0;@"/>
+    <numFmt numFmtId="189" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -105,6 +92,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -127,8 +116,6 @@
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE009E37-8B77-4C9B-BD0C-10A7DC4037DC}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,9 +556,6 @@
       <c r="C8" s="14">
         <v>44230</v>
       </c>
-      <c r="D8" s="19">
-        <v>1234.5678</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -580,9 +564,6 @@
       <c r="C9" s="15">
         <v>44230</v>
       </c>
-      <c r="D9" s="20">
-        <v>1234.5678</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -654,6 +635,22 @@
       </c>
       <c r="C18" s="24">
         <v>44230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1234.5678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="C20" s="20">
+        <v>1234.5678</v>
       </c>
     </row>
   </sheetData>
